--- a/tables_figures/final-tables_figures/tableS1.xlsx
+++ b/tables_figures/final-tables_figures/tableS1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/AgNP-ELA_fish-excretion/tables_figures/final-tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{1565A335-83A6-4C1A-ABEE-1B55C6EA9BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29E6E3C3-D9AB-406E-8965-E7EF204930BE}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{1565A335-83A6-4C1A-ABEE-1B55C6EA9BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED76A47-3AF7-41C0-87FA-33FBCD13FC9F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="35295" yWindow="540" windowWidth="14400" windowHeight="7275" xr2:uid="{DA967A59-FA81-4BCC-9B48-67B2811E9A5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DA967A59-FA81-4BCC-9B48-67B2811E9A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FC5139-3B50-4D87-A858-8F6A4F8F8347}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
